--- a/biology/Médecine/Helen_Ranney/Helen_Ranney.xlsx
+++ b/biology/Médecine/Helen_Ranney/Helen_Ranney.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Helen Margaret Ranney, née le 12 avril 1920 et morte le 5 avril 2010 était un médecin et hématologue américaine. Elle a apporté d'importantes contributions à la recherche sur l'anémie falciforme[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Helen Margaret Ranney, née le 12 avril 1920 et morte le 5 avril 2010 était un médecin et hématologue américaine. Elle a apporté d'importantes contributions à la recherche sur l'anémie falciforme.
 </t>
         </is>
       </c>
@@ -513,11 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enfance
-Helen est née en avril 1920, à Summer Hill, un comté de Cayuga à New York, où ses parents dirigeaient une ferme laitière[2]. Ses deux parents, dont sa mère qui était enseignante, ont encouragé Helen Margaret Ranney dans ses études et dans la poursuite d'une carrière professionnelle. Elle a fréquenté une école constituée d'une seule classe dans son enfance, puis a fréquenté le Barnard College où elle a été diplômée avec distinction en 1941, avec le plan d'étudier le droit. Cependant, c'est ici qu'elle a décidé d'étudier la médecine, en disant: « La médecine tente de réparer ce qu'elle étudie »[2]. Elle a d'abord rencontré des obstacles pour poursuivre ses études médicales à Columbia, en raison de son sexe, mais les changements de politique pendant la Seconde Guerre mondiale ont permis son admission au Collège des médecins et chirurgiens de l'Université de Columbia[3].
-Carrière
-Helen Margaret Ranney était enseignante à l'école Harvard Medical School. Elle a travaillé en tant que médecin du personnel à l'hôpital américain Brigham and Women's. Helen a été la première femme à occuper le poste de présidente de l'Association of American Physicians et de l'American Society of Hematology. Elle a également été l'une des premières femmes à être admise à l'American Society for Clinical Investigation et a été la première femme honorée en tant que médecin émérite de l'Administration des anciens combattants[2]. Elle a débuté des recherches sur l'hémoglobine en 1953 en étant la première à utiliser l'électrophorèse sur papier pour séparer l'hémoglobine humaine, travail qui a aidé à comprendre l'hérédité de la drépanocytose. En 1960, Helen Margaret Ranney a cofondé la clinique de l'hérédité à l'Albert Einstein College of Medicine.
-Margaret était membre du corps professoral et la première femme à diriger le département de médecine de l'Université de Californie, San Diego School of Medicine. En 1973, elle est élue membre de l'Académie nationale des sciences et de l' Institut de médecine[4],[5]. Elle a été élue membre de l'Académie américaine des arts et des sciences en 1975[6]. Elle est morte le 5 avril 2010[1].
+          <t>Enfance</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Helen est née en avril 1920, à Summer Hill, un comté de Cayuga à New York, où ses parents dirigeaient une ferme laitière. Ses deux parents, dont sa mère qui était enseignante, ont encouragé Helen Margaret Ranney dans ses études et dans la poursuite d'une carrière professionnelle. Elle a fréquenté une école constituée d'une seule classe dans son enfance, puis a fréquenté le Barnard College où elle a été diplômée avec distinction en 1941, avec le plan d'étudier le droit. Cependant, c'est ici qu'elle a décidé d'étudier la médecine, en disant: « La médecine tente de réparer ce qu'elle étudie ». Elle a d'abord rencontré des obstacles pour poursuivre ses études médicales à Columbia, en raison de son sexe, mais les changements de politique pendant la Seconde Guerre mondiale ont permis son admission au Collège des médecins et chirurgiens de l'Université de Columbia.
 </t>
         </is>
       </c>
@@ -543,17 +557,57 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Helen Margaret Ranney était enseignante à l'école Harvard Medical School. Elle a travaillé en tant que médecin du personnel à l'hôpital américain Brigham and Women's. Helen a été la première femme à occuper le poste de présidente de l'Association of American Physicians et de l'American Society of Hematology. Elle a également été l'une des premières femmes à être admise à l'American Society for Clinical Investigation et a été la première femme honorée en tant que médecin émérite de l'Administration des anciens combattants. Elle a débuté des recherches sur l'hémoglobine en 1953 en étant la première à utiliser l'électrophorèse sur papier pour séparer l'hémoglobine humaine, travail qui a aidé à comprendre l'hérédité de la drépanocytose. En 1960, Helen Margaret Ranney a cofondé la clinique de l'hérédité à l'Albert Einstein College of Medicine.
+Margaret était membre du corps professoral et la première femme à diriger le département de médecine de l'Université de Californie, San Diego School of Medicine. En 1973, elle est élue membre de l'Académie nationale des sciences et de l' Institut de médecine,. Elle a été élue membre de l'Académie américaine des arts et des sciences en 1975. Elle est morte le 5 avril 2010.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Helen_Ranney</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helen_Ranney</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Récompenses, distinctions et adhésions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le Dr Ranney a reçu le Dr Martin Luther King, Jr., Medical Achievement Award en 1972 pour son travail sur les troubles sanguins, qui comprenait la première description de la structure anormale des cellules sanguines et des facteurs génétiques liés à la drépanocytose[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le Dr Ranney a reçu le Dr Martin Luther King, Jr., Medical Achievement Award en 1972 pour son travail sur les troubles sanguins, qui comprenait la première description de la structure anormale des cellules sanguines et des facteurs génétiques liés à la drépanocytose.
 Présidente de l'association des médecins américains (première femme à occuper ce poste).
-Médecin émérite de l'Administration des anciens combattants (la première femme ainsi honorée)[2].
+Médecin émérite de l'Administration des anciens combattants (la première femme ainsi honorée).
 Présidente de la société américaine d'hématologie.
 Maître de l'American College of Physicians.
-Élue en 1973 aux académies nationales (maintenant appelés académies nationales des sciences, d'ingénierie et de médecine)[4].</t>
+Élue en 1973 aux académies nationales (maintenant appelés académies nationales des sciences, d'ingénierie et de médecine).</t>
         </is>
       </c>
     </row>
